--- a/data/trans_camb/P29A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Habitat-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -5,01</t>
+          <t>-24,65; -5,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 3,48</t>
+          <t>-28,0; 2,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -6,22</t>
+          <t>-21,71; -5,68</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -5,01</t>
+          <t>-24,65; -5,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 3,01</t>
+          <t>-28,97; 2,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,55; -6,26</t>
+          <t>-21,97; -5,86</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -3,54</t>
+          <t>-11,41; -3,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,6; -14,34</t>
+          <t>-25,37; -14,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -8,44</t>
+          <t>-14,98; -8,86</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -3,73</t>
+          <t>-11,63; -3,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,2; -15,05</t>
+          <t>-25,95; -14,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -8,71</t>
+          <t>-15,32; -9,16</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-41,97; -14,19</t>
+          <t>-40,84; -14,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,61; -27,49</t>
+          <t>-38,85; -28,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-40,17; -21,19</t>
+          <t>-37,77; -21,26</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,56; -14,41</t>
+          <t>-41,82; -14,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,05; -28,97</t>
+          <t>-40,11; -29,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,31; -21,75</t>
+          <t>-38,56; -21,77</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,14; -12,59</t>
+          <t>-22,33; -12,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-32,73; -6,75</t>
+          <t>-32,3; -5,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,76; -10,53</t>
+          <t>-23,96; -11,38</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,31; -12,77</t>
+          <t>-22,54; -12,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -7,19</t>
+          <t>-33,21; -5,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,0; -10,59</t>
+          <t>-24,34; -11,54</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -13,94</t>
+          <t>-21,33; -14,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -25,28</t>
+          <t>-37,14; -24,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-26,67; -19,61</t>
+          <t>-27,19; -19,71</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,2; -14,14</t>
+          <t>-21,54; -14,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,01; -25,72</t>
+          <t>-37,55; -24,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,98; -19,9</t>
+          <t>-27,43; -19,9</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-25,03; -14,27</t>
+          <t>-26,13; -14,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-29,98; -19,02</t>
+          <t>-30,26; -19,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-25,13; -18,57</t>
+          <t>-25,69; -18,67</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-25,34; -14,47</t>
+          <t>-26,35; -14,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-30,85; -19,7</t>
+          <t>-31,03; -19,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-25,56; -18,97</t>
+          <t>-26,06; -19,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Habitat-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 2,47</t>
+          <t>-27,05; 2,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -5,68</t>
+          <t>-21,62; -5,15</t>
         </is>
       </c>
     </row>
@@ -630,19 +630,19 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,97; 2,76</t>
+          <t>-28,09; 2,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,97; -5,86</t>
+          <t>-22,15; -5,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,41; -3,55</t>
+          <t>-11,73; -3,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,37; -14,44</t>
+          <t>-25,99; -14,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,98; -8,86</t>
+          <t>-15,3; -8,87</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -3,7</t>
+          <t>-12,0; -3,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,95; -14,99</t>
+          <t>-26,58; -15,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,32; -9,16</t>
+          <t>-15,57; -9,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-40,84; -14,59</t>
+          <t>-41,53; -14,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,85; -28,28</t>
+          <t>-39,19; -28,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-37,77; -21,26</t>
+          <t>-37,86; -21,28</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,82; -14,88</t>
+          <t>-42,01; -14,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,11; -29,99</t>
+          <t>-40,53; -29,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,56; -21,77</t>
+          <t>-38,74; -21,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,33; -12,83</t>
+          <t>-22,27; -12,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-32,3; -5,38</t>
+          <t>-31,9; -6,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,96; -11,38</t>
+          <t>-24,06; -11,37</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,54; -12,94</t>
+          <t>-22,46; -13,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,21; -5,59</t>
+          <t>-32,96; -6,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,34; -11,54</t>
+          <t>-24,44; -11,58</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,33; -14,11</t>
+          <t>-21,44; -13,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-37,14; -24,4</t>
+          <t>-37,29; -24,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-27,19; -19,71</t>
+          <t>-27,1; -19,75</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -14,26</t>
+          <t>-21,54; -14,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,55; -24,87</t>
+          <t>-37,73; -24,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,43; -19,9</t>
+          <t>-27,48; -20,06</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-26,13; -14,25</t>
+          <t>-25,82; -14,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -19,29</t>
+          <t>-30,29; -19,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-25,69; -18,67</t>
+          <t>-25,36; -18,51</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -14,42</t>
+          <t>-26,17; -14,37</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,03; -19,87</t>
+          <t>-31,06; -19,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,06; -19,01</t>
+          <t>-25,87; -18,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -5,83</t>
+          <t>-23,92; -5,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 2,37</t>
+          <t>-29,1; 3,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -5,15</t>
+          <t>-21,38; -6,22</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -5,83</t>
+          <t>-23,92; -5,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 2,39</t>
+          <t>-30,37; 3,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,15; -5,58</t>
+          <t>-21,55; -6,26</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,73; -3,64</t>
+          <t>-11,34; -3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -14,46</t>
+          <t>-25,6; -14,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -8,87</t>
+          <t>-14,94; -8,44</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,0; -3,8</t>
+          <t>-11,63; -3,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,58; -15,1</t>
+          <t>-26,2; -15,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -9,11</t>
+          <t>-15,3; -8,71</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-41,53; -14,67</t>
+          <t>-41,97; -14,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-39,19; -28,21</t>
+          <t>-38,61; -27,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-37,86; -21,28</t>
+          <t>-40,17; -21,19</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,01; -14,88</t>
+          <t>-42,56; -14,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,53; -29,87</t>
+          <t>-40,05; -28,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,74; -21,8</t>
+          <t>-41,31; -21,75</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,27; -12,85</t>
+          <t>-22,14; -12,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,9; -6,34</t>
+          <t>-32,73; -6,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,06; -11,37</t>
+          <t>-23,76; -10,53</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,46; -13,02</t>
+          <t>-22,31; -12,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,96; -6,56</t>
+          <t>-33,66; -7,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,44; -11,58</t>
+          <t>-24,0; -10,59</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,44; -13,94</t>
+          <t>-21,01; -13,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-37,29; -24,44</t>
+          <t>-37,43; -25,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-27,1; -19,75</t>
+          <t>-26,67; -19,61</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -14,15</t>
+          <t>-21,2; -14,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,73; -24,83</t>
+          <t>-38,01; -25,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,48; -20,06</t>
+          <t>-26,98; -19,9</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-25,82; -14,16</t>
+          <t>-25,03; -14,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-30,29; -19,36</t>
+          <t>-29,98; -19,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-25,36; -18,51</t>
+          <t>-25,13; -18,57</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-26,17; -14,37</t>
+          <t>-25,34; -14,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,06; -19,88</t>
+          <t>-30,85; -19,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-25,87; -18,89</t>
+          <t>-25,56; -18,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Habitat-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,32</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,52</t>
+          <t>-18,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,62</t>
+          <t>-11,42</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -5,01</t>
+          <t>-11,37; -4,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 3,48</t>
+          <t>-23,15; -12,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -6,22</t>
+          <t>-14,5; -8,54</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,32%</t>
+          <t>-7,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,38%</t>
+          <t>-18,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,88%</t>
+          <t>-11,7%</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -5,01</t>
+          <t>-11,48; -4,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 3,01</t>
+          <t>-23,71; -12,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,55; -6,26</t>
+          <t>-14,79; -8,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-40,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>-32,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,84</t>
+          <t>-37,87</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -3,54</t>
+          <t>-73,1; -13,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,6; -14,34</t>
+          <t>-37,89; -26,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -8,44</t>
+          <t>-70,99; -20,4</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>-40,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,46%</t>
+          <t>-34,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>-38,82%</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -3,73</t>
+          <t>-74,43; -14,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,2; -15,05</t>
+          <t>-39,28; -28,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -8,71</t>
+          <t>-73,51; -20,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-22,4</t>
+          <t>-16,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-33,43</t>
+          <t>-16,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-26,29</t>
+          <t>-16,81</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-41,97; -14,19</t>
+          <t>-21,75; -12,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-38,61; -27,49</t>
+          <t>-34,08; -2,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-40,17; -21,19</t>
+          <t>-23,54; -6,68</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,73%</t>
+          <t>-16,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-34,89%</t>
+          <t>-16,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,95%</t>
+          <t>-17,08%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,56; -14,41</t>
+          <t>-21,92; -12,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,05; -28,97</t>
+          <t>-34,92; -2,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,31; -21,75</t>
+          <t>-23,88; -6,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-17,09</t>
+          <t>-17,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-20,84</t>
+          <t>-36,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-19,13</t>
+          <t>-26,39</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,14; -12,59</t>
+          <t>-21,01; -13,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-32,73; -6,75</t>
+          <t>-63,25; -25,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,76; -10,53</t>
+          <t>-43,26; -20,11</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,26%</t>
+          <t>-17,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-21,4%</t>
+          <t>-37,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-19,44%</t>
+          <t>-26,71%</t>
         </is>
       </c>
     </row>
@@ -913,24 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,31; -12,77</t>
+          <t>-21,16; -13,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -7,19</t>
+          <t>-64,25; -25,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,0; -10,59</t>
+          <t>-43,81; -20,36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-17,29</t>
+          <t>-24,28</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-29,54</t>
+          <t>-26,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-22,8</t>
+          <t>-25,36</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -13,94</t>
+          <t>-48,16; -14,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -25,28</t>
+          <t>-35,63; -16,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-26,67; -19,61</t>
+          <t>-41,27; -18,61</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>-24,6%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-30,03%</t>
+          <t>-27,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-23,07%</t>
+          <t>-25,84%</t>
         </is>
       </c>
     </row>
@@ -1009,131 +1009,34 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,2; -14,14</t>
+          <t>-48,86; -14,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,01; -25,72</t>
+          <t>-36,53; -16,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,98; -19,9</t>
+          <t>-42,03; -18,95</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-17,17</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-26,41</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-21,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-25,03; -14,27</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-29,98; -19,02</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-25,13; -18,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-17,39%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-27,18%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-21,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-25,34; -14,47</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-30,85; -19,7</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-25,56; -18,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P29A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Habitat-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,62</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-18,11</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,42</t>
+          <t>-8,17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,22</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-4,55</t>
         </is>
       </c>
     </row>
@@ -579,17 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -4,44</t>
+          <t>-9,27; 1,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,15; -12,24</t>
+          <t>-5,96; 5,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -8,54</t>
+          <t>-13,79; -2,43</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 2,51</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 7,0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 4,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 0,89</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 4,41</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; -0,47</t>
         </is>
       </c>
     </row>
@@ -602,17 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,76%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,75%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>-13,45%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-9,29%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-0,02%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-7,62%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-10,76%</t>
         </is>
       </c>
     </row>
@@ -625,17 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,48; -4,54</t>
+          <t>-14,66; 3,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,71; -12,9</t>
+          <t>-9,1; 8,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,79; -8,78</t>
+          <t>-21,98; -4,25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-25,01; 11,56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-7,72; 32,64</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-16,78; 20,28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-15,49; 2,22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 10,89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-18,98; -1,03</t>
         </is>
       </c>
     </row>
@@ -652,17 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-40,18</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-32,73</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-37,87</t>
+          <t>-18,53</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-5,01</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-10,63</t>
         </is>
       </c>
     </row>
@@ -675,17 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-73,1; -13,8</t>
+          <t>-8,14; 1,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,89; -26,87</t>
+          <t>-8,95; 0,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-70,99; -20,4</t>
+          <t>-37,54; -6,35</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 2,4</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 7,01</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; -1,3</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 0,67</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 2,39</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-21,98; -5,69</t>
         </is>
       </c>
     </row>
@@ -698,17 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-40,78%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-34,15%</t>
+          <t>-7,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-38,82%</t>
+          <t>-31,65%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-5,79%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-19,21%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-6,02%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-25,19%</t>
         </is>
       </c>
     </row>
@@ -721,17 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-74,43; -14,04</t>
+          <t>-13,41; 2,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,28; -28,38</t>
+          <t>-14,79; 1,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,51; -20,89</t>
+          <t>-63,17; -11,26</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-19,41; 9,58</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 29,03</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-31,49; -5,37</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-12,98; 1,63</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-9,45; 5,9</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-50,74; -13,97</t>
         </is>
       </c>
     </row>
@@ -748,17 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,71</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-16,33</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-16,81</t>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,72</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10,09</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22,46</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,78</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,43</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,38</t>
         </is>
       </c>
     </row>
@@ -771,17 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,75; -12,01</t>
+          <t>4,75; 16,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,08; -2,74</t>
+          <t>3,33; 14,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -6,68</t>
+          <t>-4,92; 6,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 9,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,88; 14,74</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 54,24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 11,63</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 12,93</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 34,07</t>
         </is>
       </c>
     </row>
@@ -794,17 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,77%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31,89%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>56,28%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>125,29%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24,61%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29,8%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>35,99%</t>
         </is>
       </c>
     </row>
@@ -817,17 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,92; -12,12</t>
+          <t>9,72; 38,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,92; -2,84</t>
+          <t>6,85; 33,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,88; -6,79</t>
+          <t>-10,06; 16,02</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6,69; 59,82</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>28,95; 93,82</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22,51; 322,36</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 38,79</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 43,5</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 112,67</t>
         </is>
       </c>
     </row>
@@ -844,17 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-17,08</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-36,95</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-26,39</t>
+          <t>-5,72</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9,83</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8,06</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
         </is>
       </c>
     </row>
@@ -867,17 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -13,72</t>
+          <t>-1,85; 7,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-63,25; -25,61</t>
+          <t>1,71; 11,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-43,26; -20,11</t>
+          <t>-11,2; -1,06</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 7,08</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 14,14</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 2,67</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 5,81</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 11,44</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; -0,22</t>
         </is>
       </c>
     </row>
@@ -890,17 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,24%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-37,55%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-26,71%</t>
+          <t>-10,66%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35,14%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-4,57%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-9,2%</t>
         </is>
       </c>
     </row>
@@ -913,17 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -13,86</t>
+          <t>-3,44; 14,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,25; -25,96</t>
+          <t>3,06; 21,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,81; -20,36</t>
+          <t>-19,78; -1,98</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 27,82</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>19,9; 54,55</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-25,68; 10,26</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 15,01</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11,68; 29,32</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-20,88; -0,66</t>
         </is>
       </c>
     </row>
@@ -940,17 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-24,28</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-26,77</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-25,36</t>
+          <t>-9,18</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,72</t>
         </is>
       </c>
     </row>
@@ -963,17 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-48,16; -14,06</t>
+          <t>-1,35; 3,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-35,63; -16,1</t>
+          <t>-0,39; 4,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-41,27; -18,61</t>
+          <t>-18,95; -4,75</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 3,27</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 8,28</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 16,42</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 2,7</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 5,8</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 3,74</t>
         </is>
       </c>
     </row>
@@ -986,17 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-24,6%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-27,55%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-25,84%</t>
+          <t>-16,7%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-6,91%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-48,86; -14,24</t>
+          <t>-2,45; 6,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-36,53; -16,28</t>
+          <t>-0,68; 8,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,03; -18,95</t>
+          <t>-34,03; -8,72</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 13,86</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 35,07</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 67,86</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 6,94</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 15,1</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,31; 9,37</t>
         </is>
       </c>
     </row>
@@ -1031,10 +1707,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
